--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N2">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q2">
-        <v>4.913720379423902</v>
+        <v>12.57514448436622</v>
       </c>
       <c r="R2">
-        <v>4.913720379423902</v>
+        <v>113.176300359296</v>
       </c>
       <c r="S2">
-        <v>9.64453605622937E-05</v>
+        <v>0.0002329082713588773</v>
       </c>
       <c r="T2">
-        <v>9.64453605622937E-05</v>
+        <v>0.0002329082713588773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N3">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q3">
-        <v>20.62761054801139</v>
+        <v>47.54001939467734</v>
       </c>
       <c r="R3">
-        <v>20.62761054801139</v>
+        <v>427.860174552096</v>
       </c>
       <c r="S3">
-        <v>0.0004048739413769366</v>
+        <v>0.0008805038980941652</v>
       </c>
       <c r="T3">
-        <v>0.0004048739413769366</v>
+        <v>0.0008805038980941652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N4">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q4">
-        <v>1.191717472486901</v>
+        <v>3.360539140661333</v>
       </c>
       <c r="R4">
-        <v>1.191717472486901</v>
+        <v>30.244852265952</v>
       </c>
       <c r="S4">
-        <v>2.339075332891854E-05</v>
+        <v>6.224161981266695E-05</v>
       </c>
       <c r="T4">
-        <v>2.339075332891854E-05</v>
+        <v>6.224161981266696E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N5">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q5">
-        <v>67.80606105482357</v>
+        <v>162.3126608855022</v>
       </c>
       <c r="R5">
-        <v>67.80606105482357</v>
+        <v>1460.81394796952</v>
       </c>
       <c r="S5">
-        <v>0.00133088159312559</v>
+        <v>0.003006244684782823</v>
       </c>
       <c r="T5">
-        <v>0.00133088159312559</v>
+        <v>0.003006244684782823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N6">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q6">
-        <v>2627.222590180711</v>
+        <v>2975.427517157181</v>
       </c>
       <c r="R6">
-        <v>2627.222590180711</v>
+        <v>26778.84765441463</v>
       </c>
       <c r="S6">
-        <v>0.05156651384731201</v>
+        <v>0.05510884431079696</v>
       </c>
       <c r="T6">
-        <v>0.05156651384731201</v>
+        <v>0.05510884431079696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N7">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q7">
-        <v>11028.98012677295</v>
+        <v>11248.5293547892</v>
       </c>
       <c r="R7">
-        <v>11028.98012677295</v>
+        <v>101236.7641931028</v>
       </c>
       <c r="S7">
-        <v>0.2164742563323677</v>
+        <v>0.2083376084156047</v>
       </c>
       <c r="T7">
-        <v>0.2164742563323677</v>
+        <v>0.2083376084156047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N8">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q8">
-        <v>637.176481987305</v>
+        <v>795.1432004648987</v>
       </c>
       <c r="R8">
-        <v>637.176481987305</v>
+        <v>7156.288804184088</v>
       </c>
       <c r="S8">
-        <v>0.0125063517664561</v>
+        <v>0.0147271014287975</v>
       </c>
       <c r="T8">
-        <v>0.0125063517664561</v>
+        <v>0.0147271014287975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N9">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O9">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P9">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q9">
-        <v>36253.91792751765</v>
+        <v>38405.09015082427</v>
       </c>
       <c r="R9">
-        <v>36253.91792751765</v>
+        <v>345645.8113574184</v>
       </c>
       <c r="S9">
-        <v>0.711583467581276</v>
+        <v>0.7113129530663314</v>
       </c>
       <c r="T9">
-        <v>0.711583467581276</v>
+        <v>0.7113129530663314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N10">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O10">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P10">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q10">
-        <v>1.415012815744982</v>
+        <v>1.667178489653333</v>
       </c>
       <c r="R10">
-        <v>1.415012815744982</v>
+        <v>15.00460640688</v>
       </c>
       <c r="S10">
-        <v>2.777354238272539E-05</v>
+        <v>3.087834581579616E-05</v>
       </c>
       <c r="T10">
-        <v>2.777354238272539E-05</v>
+        <v>3.087834581579616E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N11">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P11">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q11">
-        <v>5.940169775605873</v>
+        <v>6.30272660732</v>
       </c>
       <c r="R11">
-        <v>5.940169775605873</v>
+        <v>56.72453946588001</v>
       </c>
       <c r="S11">
-        <v>0.0001165922705346771</v>
+        <v>0.0001167348145210983</v>
       </c>
       <c r="T11">
-        <v>0.0001165922705346771</v>
+        <v>0.0001167348145210983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N12">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O12">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P12">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q12">
-        <v>0.3431810046370381</v>
+        <v>0.44553114884</v>
       </c>
       <c r="R12">
-        <v>0.3431810046370381</v>
+        <v>4.009780339560001</v>
       </c>
       <c r="S12">
-        <v>6.735876927174651E-06</v>
+        <v>8.251824847171043E-06</v>
       </c>
       <c r="T12">
-        <v>6.735876927174651E-06</v>
+        <v>8.251824847171043E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N13">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O13">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P13">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q13">
-        <v>19.52623225764651</v>
+        <v>21.51897158423333</v>
       </c>
       <c r="R13">
-        <v>19.52623225764651</v>
+        <v>193.6707442581</v>
       </c>
       <c r="S13">
-        <v>0.0003832563444997252</v>
+        <v>0.0003985597524812206</v>
       </c>
       <c r="T13">
-        <v>0.0003832563444997252</v>
+        <v>0.0003985597524812206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N14">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O14">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P14">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q14">
-        <v>14.50994790510522</v>
+        <v>17.37219171232178</v>
       </c>
       <c r="R14">
-        <v>14.50994790510522</v>
+        <v>156.349725410896</v>
       </c>
       <c r="S14">
-        <v>0.0002847978821318364</v>
+        <v>0.0003217559167182644</v>
       </c>
       <c r="T14">
-        <v>0.0002847978821318364</v>
+        <v>0.0003217559167182644</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N15">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P15">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q15">
-        <v>60.91220731887387</v>
+        <v>65.67513653291066</v>
       </c>
       <c r="R15">
-        <v>60.91220731887387</v>
+        <v>591.0762287961959</v>
       </c>
       <c r="S15">
-        <v>0.001195570635666236</v>
+        <v>0.001216390200538471</v>
       </c>
       <c r="T15">
-        <v>0.001195570635666236</v>
+        <v>0.001216390200538471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N16">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O16">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P16">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q16">
-        <v>3.519076607573656</v>
+        <v>4.642485840294666</v>
       </c>
       <c r="R16">
-        <v>3.519076607573656</v>
+        <v>41.78237256265199</v>
       </c>
       <c r="S16">
-        <v>6.907161703482334E-05</v>
+        <v>8.5984964484135E-05</v>
       </c>
       <c r="T16">
-        <v>6.907161703482334E-05</v>
+        <v>8.598496448413501E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N17">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O17">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P17">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q17">
-        <v>200.2275948944463</v>
+        <v>224.2301601978078</v>
       </c>
       <c r="R17">
-        <v>200.2275948944463</v>
+        <v>2018.07144178027</v>
       </c>
       <c r="S17">
-        <v>0.003930020655017376</v>
+        <v>0.004153038485014882</v>
       </c>
       <c r="T17">
-        <v>0.003930020655017376</v>
+        <v>0.004153038485014882</v>
       </c>
     </row>
   </sheetData>
